--- a/SupplyDemand_Original.xlsx
+++ b/SupplyDemand_Original.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="620">
   <si>
     <t xml:space="preserve">SRC2</t>
   </si>
@@ -1874,6 +1874,12 @@
   </si>
   <si>
     <t xml:space="preserve">CONTRACTING SPT BDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
   </si>
 </sst>
 </file>
@@ -1971,13 +1977,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T300"/>
+  <dimension ref="A1:T302"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A287" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A301" activeCellId="0" sqref="301:302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.27"/>
@@ -20593,6 +20599,130 @@
         <v>0</v>
       </c>
     </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="C301" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D301" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E301" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F301" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G301" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H301" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I301" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J301" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K301" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L301" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M301" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N301" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O301" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P301" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q301" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R301" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S301" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T301" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="C302" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D302" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E302" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F302" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G302" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H302" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I302" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J302" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K302" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N302" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O302" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P302" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q302" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R302" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S302" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T302" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
